--- a/MillenniumHistory/Win32/GameStaticDebugWindows/Resource/AncientBooks/Gather.xlsx
+++ b/MillenniumHistory/Win32/GameStaticDebugWindows/Resource/AncientBooks/Gather.xlsx
@@ -1020,7 +1020,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6" outlineLevelCol="1"/>
